--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1928410.516214376</v>
+        <v>-1931268.299691184</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12456289.22960902</v>
+        <v>12456289.22960903</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>115.8025154061677</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.98670343452743</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>121.1869856777808</v>
+        <v>121.186985677781</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.2434429743993</v>
+        <v>156.2434429743994</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="X2" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>135.6652645824031</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.104329683195</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.73162531578785</v>
+        <v>46.73162531578796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.21950973553005</v>
       </c>
       <c r="S3" t="n">
         <v>148.6658071658275</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="X3" t="n">
-        <v>95.54952391145665</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>49.40953862405391</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.9946598069199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.2081243741569</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.90943397052112</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5809772793341</v>
+        <v>130.5809772793342</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.9115236686847</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.668033473518</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>212.568965117905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>51.86511980904053</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>186.1208265827663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>28.18649343182673</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>217.3613307063667</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>277.1475940816674</v>
+        <v>213.0787404579732</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>143.2166920488289</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>145.9219060821654</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>112.5284434523334</v>
+        <v>212.8988206105707</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>154.5586518047183</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634801</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1465069965572</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2132,13 +2132,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>152.6628237007935</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.0177805240514</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="C2" t="n">
-        <v>277.0177805240514</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="D2" t="n">
-        <v>277.0177805240514</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="E2" t="n">
-        <v>160.0455427400437</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="F2" t="n">
-        <v>153.1000419908402</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="G2" t="n">
-        <v>139.9821597337418</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="H2" t="n">
-        <v>139.9821597337418</v>
+        <v>139.9821597337419</v>
       </c>
       <c r="I2" t="n">
-        <v>17.57106308951878</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="J2" t="n">
-        <v>32.94041018158032</v>
+        <v>32.94041018157964</v>
       </c>
       <c r="K2" t="n">
-        <v>106.7135956263298</v>
+        <v>106.7135956263285</v>
       </c>
       <c r="L2" t="n">
-        <v>235.137517499774</v>
+        <v>235.1375174997718</v>
       </c>
       <c r="M2" t="n">
-        <v>409.7033126687008</v>
+        <v>409.703312668698</v>
       </c>
       <c r="N2" t="n">
-        <v>591.707573285214</v>
+        <v>591.7075732852102</v>
       </c>
       <c r="O2" t="n">
-        <v>750.233774304731</v>
+        <v>750.233774304726</v>
       </c>
       <c r="P2" t="n">
-        <v>851.0312183826505</v>
+        <v>851.0312183826446</v>
       </c>
       <c r="Q2" t="n">
-        <v>878.5531544759391</v>
+        <v>878.5531544759326</v>
       </c>
       <c r="R2" t="n">
-        <v>878.5531544759391</v>
+        <v>878.5531544759326</v>
       </c>
       <c r="S2" t="n">
-        <v>720.7314949058389</v>
+        <v>720.7314949058323</v>
       </c>
       <c r="T2" t="n">
-        <v>720.7314949058389</v>
+        <v>720.7314949058323</v>
       </c>
       <c r="U2" t="n">
-        <v>720.7314949058389</v>
+        <v>720.7314949058323</v>
       </c>
       <c r="V2" t="n">
-        <v>720.7314949058389</v>
+        <v>720.7314949058323</v>
       </c>
       <c r="W2" t="n">
-        <v>498.8746377149452</v>
+        <v>498.8746377149401</v>
       </c>
       <c r="X2" t="n">
-        <v>277.0177805240514</v>
+        <v>277.017780524048</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.0177805240514</v>
+        <v>139.9821597337419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.2538459167742</v>
+        <v>211.309282997773</v>
       </c>
       <c r="C3" t="n">
-        <v>202.2538459167742</v>
+        <v>211.309282997773</v>
       </c>
       <c r="D3" t="n">
-        <v>202.2538459167742</v>
+        <v>211.309282997773</v>
       </c>
       <c r="E3" t="n">
-        <v>202.2538459167742</v>
+        <v>211.309282997773</v>
       </c>
       <c r="F3" t="n">
-        <v>202.2538459167742</v>
+        <v>64.77472502465801</v>
       </c>
       <c r="G3" t="n">
-        <v>64.77472502465803</v>
+        <v>64.77472502465801</v>
       </c>
       <c r="H3" t="n">
-        <v>64.77472502465803</v>
+        <v>64.77472502465801</v>
       </c>
       <c r="I3" t="n">
-        <v>17.57106308951878</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="J3" t="n">
-        <v>58.18109610406762</v>
+        <v>58.18109610406526</v>
       </c>
       <c r="K3" t="n">
-        <v>119.8186583493625</v>
+        <v>119.8186583493596</v>
       </c>
       <c r="L3" t="n">
-        <v>249.0205084909448</v>
+        <v>249.0205084909413</v>
       </c>
       <c r="M3" t="n">
-        <v>419.1498417208667</v>
+        <v>419.1498417208625</v>
       </c>
       <c r="N3" t="n">
-        <v>608.1906370815013</v>
+        <v>608.1906370814963</v>
       </c>
       <c r="O3" t="n">
-        <v>758.9062375206501</v>
+        <v>758.9062375206445</v>
       </c>
       <c r="P3" t="n">
-        <v>860.535727951836</v>
+        <v>860.5357279518298</v>
       </c>
       <c r="Q3" t="n">
-        <v>878.5531544759391</v>
+        <v>878.5531544759326</v>
       </c>
       <c r="R3" t="n">
-        <v>878.5531544759391</v>
+        <v>855.0991042380234</v>
       </c>
       <c r="S3" t="n">
-        <v>728.3856724902548</v>
+        <v>704.931622252339</v>
       </c>
       <c r="T3" t="n">
-        <v>728.3856724902548</v>
+        <v>704.931622252339</v>
       </c>
       <c r="U3" t="n">
-        <v>728.3856724902548</v>
+        <v>704.931622252339</v>
       </c>
       <c r="V3" t="n">
-        <v>506.5288152993611</v>
+        <v>483.0747650614469</v>
       </c>
       <c r="W3" t="n">
-        <v>506.5288152993611</v>
+        <v>261.2179078705548</v>
       </c>
       <c r="X3" t="n">
-        <v>410.0141446817281</v>
+        <v>261.2179078705548</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.2538459167742</v>
+        <v>211.309282997773</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0343018446796</v>
+        <v>186.5072460174256</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0343018446796</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0343018446796</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0343018446796</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="F4" t="n">
-        <v>163.1443543467693</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="G4" t="n">
-        <v>163.1443543467693</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="H4" t="n">
-        <v>163.1443543467693</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="I4" t="n">
-        <v>37.68160245368153</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="J4" t="n">
-        <v>17.57106308951878</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="K4" t="n">
-        <v>115.0177570125929</v>
+        <v>17.57106308951865</v>
       </c>
       <c r="L4" t="n">
-        <v>295.2424101146125</v>
+        <v>197.7957161915379</v>
       </c>
       <c r="M4" t="n">
-        <v>385.2379679880911</v>
+        <v>398.2064666211406</v>
       </c>
       <c r="N4" t="n">
-        <v>586.3180151343838</v>
+        <v>599.2865137674329</v>
       </c>
       <c r="O4" t="n">
-        <v>756.0316889082264</v>
+        <v>769.0001875412752</v>
       </c>
       <c r="P4" t="n">
-        <v>877.7303735359959</v>
+        <v>878.5531544759326</v>
       </c>
       <c r="Q4" t="n">
-        <v>878.5531544759391</v>
+        <v>878.5531544759326</v>
       </c>
       <c r="R4" t="n">
-        <v>746.6531774261067</v>
+        <v>746.6531774261001</v>
       </c>
       <c r="S4" t="n">
-        <v>746.6531774261067</v>
+        <v>538.6617393769236</v>
       </c>
       <c r="T4" t="n">
-        <v>746.6531774261067</v>
+        <v>538.6617393769236</v>
       </c>
       <c r="U4" t="n">
-        <v>746.6531774261067</v>
+        <v>538.6617393769236</v>
       </c>
       <c r="V4" t="n">
-        <v>530.8268809882097</v>
+        <v>538.6617393769236</v>
       </c>
       <c r="W4" t="n">
-        <v>530.8268809882097</v>
+        <v>316.8048821860315</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8268809882097</v>
+        <v>316.8048821860315</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0343018446796</v>
+        <v>316.8048821860315</v>
       </c>
     </row>
     <row r="5">
@@ -4547,7 +4547,7 @@
         <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899463</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E5" t="n">
         <v>307.3840804899463</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>788.4778634388465</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638.7188391107509</v>
+        <v>220.0206782813573</v>
       </c>
       <c r="C6" t="n">
-        <v>464.2658098296238</v>
+        <v>220.0206782813573</v>
       </c>
       <c r="D6" t="n">
-        <v>464.2658098296238</v>
+        <v>220.0206782813573</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.219221609864</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>709.4101432413016</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>474.2580350095589</v>
       </c>
       <c r="W6" t="n">
-        <v>826.7196740428381</v>
+        <v>220.0206782813573</v>
       </c>
       <c r="X6" t="n">
-        <v>826.7196740428381</v>
+        <v>220.0206782813573</v>
       </c>
       <c r="Y6" t="n">
-        <v>638.7188391107509</v>
+        <v>220.0206782813573</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.8270975072483</v>
+        <v>365.3944463126314</v>
       </c>
       <c r="C7" t="n">
-        <v>204.8909145793414</v>
+        <v>196.4582633847245</v>
       </c>
       <c r="D7" t="n">
-        <v>204.8909145793414</v>
+        <v>196.4582633847245</v>
       </c>
       <c r="E7" t="n">
-        <v>204.8909145793414</v>
+        <v>196.4582633847245</v>
       </c>
       <c r="F7" t="n">
-        <v>204.8909145793414</v>
+        <v>49.56831588681416</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T7" t="n">
-        <v>628.5115857131351</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="U7" t="n">
-        <v>628.5115857131351</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="V7" t="n">
-        <v>373.8270975072483</v>
+        <v>593.3839972106488</v>
       </c>
       <c r="W7" t="n">
-        <v>373.8270975072483</v>
+        <v>593.3839972106488</v>
       </c>
       <c r="X7" t="n">
-        <v>373.8270975072483</v>
+        <v>365.3944463126314</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.8270975072483</v>
+        <v>365.3944463126314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1302.576789404184</v>
+        <v>863.4584982637874</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974333</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,7 +4799,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2028.811202935378</v>
+        <v>2013.663428564801</v>
       </c>
       <c r="W8" t="n">
-        <v>1676.042547665264</v>
+        <v>2013.663428564801</v>
       </c>
       <c r="X8" t="n">
-        <v>1302.576789404184</v>
+        <v>1640.197670303721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1302.576789404184</v>
+        <v>1250.058338327909</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844846</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159563</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751764</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>344.6490100063443</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9856847044969</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>493.4456923777666</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>345.5325987953735</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>198.6426512974631</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>198.6426512974631</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478917</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>793.4311400478917</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>565.4415891498744</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>344.6490100063443</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580263</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2333.297989183966</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,7 +5355,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>768.53808894596</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>768.53808894596</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>768.53808894596</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>620.6249953635669</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>473.7350478656565</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817747</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.97913291973</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761997</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>659.9487421954783</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1579.796507104226</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1290.379337067265</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1062.389786169248</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>841.597207025718</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5896,16 +5896,16 @@
         <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,13 +6075,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2042.857673062523</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1753.782446406721</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.097958200834</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7403,34 +7403,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,10 +7734,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.78182033745249</v>
+        <v>50.78182033745051</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>8.312762381951643</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>66.97916337800666</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>122.7381616038272</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.51186651922322</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9556134883062555</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>266.1278546660941</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.98670343452744</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.9574103762715</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1603701813879</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>101.0212245411089</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.0928120594843</v>
+        <v>150.0928120594859</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>250.5726740736505</v>
       </c>
     </row>
     <row r="3">
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2623624570596</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.57205797807762</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.8770068749549</v>
+        <v>4.506629716717612</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.96548648755052</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194322</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>78.25894333073106</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>103.8640922513198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695401</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>64.74262662649477</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26329,7 +26329,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628756.2786403511</v>
+        <v>628756.2786403493</v>
       </c>
       <c r="C3" t="n">
-        <v>48789.17030729396</v>
+        <v>48789.17030729549</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>57467.04038742565</v>
+        <v>57467.04038742523</v>
       </c>
       <c r="K3" t="n">
-        <v>11343.64680293676</v>
+        <v>11343.64680293721</v>
       </c>
       <c r="L3" t="n">
         <v>114810.3641312015</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184911.749256536</v>
+        <v>184911.7492565365</v>
       </c>
       <c r="C4" t="n">
         <v>253911.4645514929</v>
@@ -26424,40 +26424,40 @@
         <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="L4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.72340992393</v>
       </c>
-      <c r="M4" t="n">
-        <v>20987.72340992394</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.72340992392</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992395</v>
-      </c>
       <c r="P4" t="n">
-        <v>20987.72340992398</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59540.88175864923</v>
+        <v>59540.8817586491</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788582.8392083755</v>
+        <v>-788942.9222240915</v>
       </c>
       <c r="C6" t="n">
-        <v>-263118.2168300176</v>
+        <v>-263118.2168300192</v>
       </c>
       <c r="D6" t="n">
-        <v>-525387.0089955716</v>
+        <v>-525387.0089955719</v>
       </c>
       <c r="E6" t="n">
-        <v>-520711.5106340326</v>
+        <v>-520746.248559468</v>
       </c>
       <c r="F6" t="n">
-        <v>-13226.06900948679</v>
+        <v>-13260.80693492247</v>
       </c>
       <c r="G6" t="n">
-        <v>-13226.0690094868</v>
+        <v>-13260.80693492253</v>
       </c>
       <c r="H6" t="n">
-        <v>-13226.06900948682</v>
+        <v>-13260.80693492248</v>
       </c>
       <c r="I6" t="n">
-        <v>-13226.0690094868</v>
+        <v>-13260.80693492247</v>
       </c>
       <c r="J6" t="n">
-        <v>-70693.10939691245</v>
+        <v>-70727.84732234772</v>
       </c>
       <c r="K6" t="n">
-        <v>-24569.71581242357</v>
+        <v>-24604.45373785976</v>
       </c>
       <c r="L6" t="n">
-        <v>-136331.9821620054</v>
+        <v>-136331.9821620053</v>
       </c>
       <c r="M6" t="n">
-        <v>-154128.9117597306</v>
+        <v>-154128.9117597304</v>
       </c>
       <c r="N6" t="n">
-        <v>-21521.61803080383</v>
+        <v>-21521.61803080382</v>
       </c>
       <c r="O6" t="n">
-        <v>-21521.61803080389</v>
+        <v>-21521.61803080386</v>
       </c>
       <c r="P6" t="n">
-        <v>-21521.61803080387</v>
+        <v>-21521.61803080382</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511446</v>
+        <v>576.1134775511432</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511446</v>
+        <v>576.1134775511432</v>
       </c>
       <c r="C3" t="n">
-        <v>37.94153621833368</v>
+        <v>37.94153621833482</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480613</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="C4" t="n">
-        <v>44.07559138252137</v>
+        <v>44.07559138252293</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138252137</v>
+        <v>44.07559138252293</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>4.096468934528683e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189848</v>
+        <v>219.6382886189832</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138252137</v>
+        <v>44.07559138252293</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.7557180877444</v>
+        <v>315.7557180877445</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.384542125181468</v>
+        <v>4.384542125181838</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.9574103762716</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1603701813879</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>28.58145555731939</v>
+        <v>129.6026800984299</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.104329683195</v>
       </c>
       <c r="H3" t="n">
         <v>100.2675019952925</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.21950973552987</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.8598565888685</v>
       </c>
       <c r="V3" t="n">
-        <v>13.16229853044049</v>
+        <v>13.16229853044211</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>32.05669454193645</v>
       </c>
       <c r="X3" t="n">
-        <v>110.2234612920208</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>156.2731571532505</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>50.83732037501744</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.952086202219</v>
@@ -27555,10 +27555,10 @@
         <v>152.9904679001442</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>124.2081243741569</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.90943397052131</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.9115236686847</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.5066823061661</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2623624570596</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>38.46960985031001</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>14.31265173953022</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>170.1648765455756</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,7 +27667,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.6720035995079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>105.7799606463604</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56186919453808</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.6971736067198</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>5.85301517319914</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>50.60466438846748</v>
+        <v>114.6735180121617</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>24.03012904979894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.329603072963437</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28287,10 +28287,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>8.25531591874223e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.250406124539427e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.721052286510536e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28852,13 +28852,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.316034080607615</v>
+        <v>2.316034080607609</v>
       </c>
       <c r="H2" t="n">
-        <v>23.71908402802274</v>
+        <v>23.71908402802268</v>
       </c>
       <c r="I2" t="n">
-        <v>89.28890389262514</v>
+        <v>89.28890389262494</v>
       </c>
       <c r="J2" t="n">
-        <v>196.5704975489707</v>
+        <v>196.5704975489703</v>
       </c>
       <c r="K2" t="n">
-        <v>294.6082201810911</v>
+        <v>294.6082201810904</v>
       </c>
       <c r="L2" t="n">
-        <v>365.4875481754864</v>
+        <v>365.4875481754856</v>
       </c>
       <c r="M2" t="n">
-        <v>406.6753192564921</v>
+        <v>406.6753192564912</v>
       </c>
       <c r="N2" t="n">
-        <v>413.2557510880185</v>
+        <v>413.2557510880175</v>
       </c>
       <c r="O2" t="n">
-        <v>390.2256871989765</v>
+        <v>390.2256871989756</v>
       </c>
       <c r="P2" t="n">
-        <v>333.048595833976</v>
+        <v>333.0485958339752</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.1056253222157</v>
+        <v>250.1056253222151</v>
       </c>
       <c r="R2" t="n">
-        <v>145.4845758159682</v>
+        <v>145.4845758159678</v>
       </c>
       <c r="S2" t="n">
-        <v>52.77662661184607</v>
+        <v>52.77662661184595</v>
       </c>
       <c r="T2" t="n">
-        <v>10.13843918785984</v>
+        <v>10.13843918785981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1852827264486091</v>
+        <v>0.1852827264486087</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.239187480015669</v>
+        <v>1.239187480015667</v>
       </c>
       <c r="H3" t="n">
-        <v>11.96794224120397</v>
+        <v>11.96794224120394</v>
       </c>
       <c r="I3" t="n">
-        <v>42.66500753562723</v>
+        <v>42.66500753562712</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0760416974453</v>
+        <v>117.0760416974451</v>
       </c>
       <c r="K3" t="n">
-        <v>200.1016028584952</v>
+        <v>200.1016028584947</v>
       </c>
       <c r="L3" t="n">
-        <v>269.0612991148058</v>
+        <v>269.0612991148052</v>
       </c>
       <c r="M3" t="n">
-        <v>313.9818452653737</v>
+        <v>313.981845265373</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2920104274087</v>
+        <v>322.2920104274079</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8342246860088</v>
+        <v>294.8342246860082</v>
       </c>
       <c r="P3" t="n">
-        <v>236.630458354922</v>
+        <v>236.6304583549215</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.1811948174388</v>
+        <v>158.1811948174384</v>
       </c>
       <c r="R3" t="n">
-        <v>76.93832441711326</v>
+        <v>76.93832441711308</v>
       </c>
       <c r="S3" t="n">
-        <v>23.01736393801034</v>
+        <v>23.01736393801028</v>
       </c>
       <c r="T3" t="n">
-        <v>4.99479514971228</v>
+        <v>4.994795149712268</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08152549210629408</v>
+        <v>0.08152549210629388</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.038893156239769</v>
+        <v>1.038893156239766</v>
       </c>
       <c r="H4" t="n">
-        <v>9.236704607295405</v>
+        <v>9.236704607295383</v>
       </c>
       <c r="I4" t="n">
-        <v>31.24235055310142</v>
+        <v>31.24235055310135</v>
       </c>
       <c r="J4" t="n">
-        <v>73.44974614615165</v>
+        <v>73.44974614615147</v>
       </c>
       <c r="K4" t="n">
-        <v>120.700495788584</v>
+        <v>120.7004957885837</v>
       </c>
       <c r="L4" t="n">
-        <v>154.455078883138</v>
+        <v>154.4550788831376</v>
       </c>
       <c r="M4" t="n">
-        <v>162.851224482203</v>
+        <v>162.8512244822026</v>
       </c>
       <c r="N4" t="n">
-        <v>158.9789863544004</v>
+        <v>158.9789863544</v>
       </c>
       <c r="O4" t="n">
-        <v>146.8428253928721</v>
+        <v>146.8428253928718</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6494050055807</v>
+        <v>125.6494050055804</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.99313511022282</v>
+        <v>86.99313511022262</v>
       </c>
       <c r="R4" t="n">
-        <v>46.71241409783541</v>
+        <v>46.7124140978353</v>
       </c>
       <c r="S4" t="n">
-        <v>18.1050743682876</v>
+        <v>18.10507436828756</v>
       </c>
       <c r="T4" t="n">
-        <v>4.438907122115374</v>
+        <v>4.438907122115364</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05666689943126018</v>
+        <v>0.05666689943126005</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121714</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.52459302228442</v>
+        <v>15.52459302228397</v>
       </c>
       <c r="K2" t="n">
-        <v>74.51836913611055</v>
+        <v>74.51836913610987</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7211332054992</v>
+        <v>129.7211332054983</v>
       </c>
       <c r="M2" t="n">
-        <v>176.3290860292194</v>
+        <v>176.3290860292184</v>
       </c>
       <c r="N2" t="n">
-        <v>183.8426874914276</v>
+        <v>183.8426874914266</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1274757772898</v>
+        <v>160.1274757772889</v>
       </c>
       <c r="P2" t="n">
-        <v>101.8156000787064</v>
+        <v>101.8156000787056</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.79993544776625</v>
+        <v>27.79993544776565</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41.02023536823114</v>
+        <v>41.0202353682289</v>
       </c>
       <c r="K3" t="n">
-        <v>62.2601638841362</v>
+        <v>62.26016388413572</v>
       </c>
       <c r="L3" t="n">
-        <v>130.5069193349316</v>
+        <v>130.506919334931</v>
       </c>
       <c r="M3" t="n">
-        <v>171.8478113433554</v>
+        <v>171.8478113433547</v>
       </c>
       <c r="N3" t="n">
-        <v>190.9502983440754</v>
+        <v>190.9502983440746</v>
       </c>
       <c r="O3" t="n">
-        <v>152.2379802415644</v>
+        <v>152.2379802415637</v>
       </c>
       <c r="P3" t="n">
-        <v>102.6560509405918</v>
+        <v>102.6560509405912</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.19942073141729</v>
+        <v>18.19942073141692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>98.43100396270117</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>182.0451041434542</v>
+        <v>182.0451041434538</v>
       </c>
       <c r="M4" t="n">
-        <v>90.90460391260461</v>
+        <v>202.4351014440432</v>
       </c>
       <c r="N4" t="n">
-        <v>203.111158733629</v>
+        <v>203.1111587336286</v>
       </c>
       <c r="O4" t="n">
-        <v>171.4279533069118</v>
+        <v>171.4279533069114</v>
       </c>
       <c r="P4" t="n">
-        <v>122.9279642704742</v>
+        <v>110.65956256026</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8310918585284384</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>187.5431097317911</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,7 +35261,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170298</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35270,7 +35270,7 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288382</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066257</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999006</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010467</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998976</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
